--- a/biology/Médecine/Jacques_de_Béthencourt/Jacques_de_Béthencourt.xlsx
+++ b/biology/Médecine/Jacques_de_Béthencourt/Jacques_de_Béthencourt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jacques_de_B%C3%A9thencourt</t>
+          <t>Jacques_de_Béthencourt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacques de Béthencourt est un médecin français du début du XVIe siècle qui exerçait la médecine à Rouen. On pense qu'il était de la famille de Jean de Béthencourt.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jacques_de_B%C3%A9thencourt</t>
+          <t>Jacques_de_Béthencourt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon la Biographie normande de Lebreton,
-« il professait le calvinisme et il faillit, lors de la prise de Rouen par les troupes de Charles IX, être victime de son dévouement à ceux de sa religion »[1].
-Il est l'un des premiers médecins français qui ait écrit sur la syphilis appelée alors vérole[2],[3]. Il invente le terme de maladie vénérienne (en latin : morbus venereus) pour remplacer le mal français dans un livre publié à Paris en 1527 et intitulé Nova pœnitentialis Quadragesima nec non Purgatorium in morbum gallicum sive venereum ; una cum dialogo aqua: argenti ac Iigni Guaiaci colluctâtium super dicti morbi curationis prælatura[4].
+« il professait le calvinisme et il faillit, lors de la prise de Rouen par les troupes de Charles IX, être victime de son dévouement à ceux de sa religion ».
+Il est l'un des premiers médecins français qui ait écrit sur la syphilis appelée alors vérole,. Il invente le terme de maladie vénérienne (en latin : morbus venereus) pour remplacer le mal français dans un livre publié à Paris en 1527 et intitulé Nova pœnitentialis Quadragesima nec non Purgatorium in morbum gallicum sive venereum ; una cum dialogo aqua: argenti ac Iigni Guaiaci colluctâtium super dicti morbi curationis prælatura.
 Cet ouvrage fut traduit en 1871 sous le titre « Nouveau carême de pénitence et purgatoire d'expiation à l'usage des malades affectés du mal français ou mal vénérien. Ouvrage suivi d'un Dialogue, où le mercure et le gaïac exposent leurs vertus et leurs prétentions rivales à la guérison de ladite maladie » par le célèbre syphiligraphe Alfred Fournier pour « sauver de l’oubli immérité le nom d’un vieux pionnier de la science ».
-Selon Brunet, « l'auteur appelle Quarême le gayac, parce ce que ceux à l'égard de qui on l'employait faisaient pendant 40 jours abstinence rigoureuse et Purgatoire, le mercure à cause des douleurs que l'on éprouve en en faisant usage[5]. »
+Selon Brunet, « l'auteur appelle Quarême le gayac, parce ce que ceux à l'égard de qui on l'employait faisaient pendant 40 jours abstinence rigoureuse et Purgatoire, le mercure à cause des douleurs que l'on éprouve en en faisant usage. »
 </t>
         </is>
       </c>
